--- a/DataCompetitor.xlsx
+++ b/DataCompetitor.xlsx
@@ -1,26 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovia\Downloads\UploadProject2\UploadProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvianto\dev\csharp\UploadProject3\UploadProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED705B4D-CA1E-49DD-A576-10164CB63795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBE7758-D003-454D-9094-275E29E2F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataCompetitor" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$D$10</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>Username</t>
   </si>
@@ -332,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +491,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -655,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -785,6 +816,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -830,9 +921,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1156,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,4 +1684,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7C8BBC-6D1B-4EBE-8AA3-A7FC142CFD4D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>